--- a/exciton.xlsx
+++ b/exciton.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="27">
   <si>
     <t xml:space="preserve">along N-Zn-N</t>
   </si>
@@ -64,6 +65,45 @@
   <si>
     <t xml:space="preserve">45 degrees</t>
   </si>
+  <si>
+    <t xml:space="preserve">ZnPc_alpha stack simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_BU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f_AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZnPc_beta stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(X-Y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(X+Y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +136,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +153,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -150,7 +196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -172,6 +218,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,11 +316,11 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG4" activeCellId="0" sqref="AG4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="Z10:AA10 A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1581,10 +1643,10 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="1" sqref="Z10:AA10 K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2641,6 +2703,572 @@
       </c>
       <c r="P18" s="0" t="n">
         <v>1.8192</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF15" activeCellId="1" sqref="Z10:AA10 AF15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="J4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="Q4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
+      <c r="X4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(J5+1))</f>
+        <v>-1.03411553555107E-013</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(Q5+1))</f>
+        <v>-1.03411553555107E-013</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(X5+1))</f>
+        <v>-1.03411553555107E-013</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="Z5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(J6+1))</f>
+        <v>0.49999999999994</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.6378</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1.8408</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1.8749</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.6546</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(Q6+1))</f>
+        <v>0.49999999999994</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>1.8226</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1.8811</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0.6671</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(X6+1))</f>
+        <v>0.49999999999994</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>0.6413</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>1.8087</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>1.8879</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0.6832</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(J7+1))</f>
+        <v>0.707106781186511</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.7846</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.7947</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(Q7+1))</f>
+        <v>0.707106781186511</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>0.7877</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1.8307</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1.9118</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0.8213</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(X7+1))</f>
+        <v>0.707106781186511</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>1.8096</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>1.9208</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>0.8498</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(J8+1))</f>
+        <v>0.809016994374923</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.9272</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1.8661</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.9283</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(Q8+1))</f>
+        <v>0.809016994374923</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>0.941</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1.8352</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1.9289</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>0.9682</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">COS(3.14159265359/(X8+1))</f>
+        <v>0.809016994374923</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>0.9754</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>1.8102</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>1.9392</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>1.0068</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="9" t="n">
+        <v>1.8776</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>1.9444</v>
+      </c>
+      <c r="S10" s="9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T10" s="9" t="n">
+        <v>1.9554</v>
+      </c>
+      <c r="Z10" s="9" t="n">
+        <v>1.8111</v>
+      </c>
+      <c r="AA10" s="9" t="n">
+        <v>1.9684</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3.632</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3.214</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>1.8094</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.7147</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1.7655</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.8869</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.6963</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1.7502</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1.9206</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.8711</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.2911</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1.7404</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1.9392</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.0328</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1.5205</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1.7347</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1.1878</v>
       </c>
     </row>
   </sheetData>
